--- a/ExcelParser.Tests/Test.xlsx
+++ b/ExcelParser.Tests/Test.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.korobkov\Source\Repos\smart_parser\ExcelParser.Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lab\git\TI\smart_parser\ExcelParser.Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F0D3A3A3-9642-4FC3-AC09-65942B2820BA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="58">
   <si>
     <t>Сведения о доходах, расходах, об имуществе и обязательствах имущественного характера, 
 представленных федеральными государственными гражданскими служащими Министерства Российской Федерации по развитию Дальнего Востока, 
@@ -198,12 +199,15 @@
   </si>
   <si>
     <t>TestCell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,6 +441,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -485,43 +523,9 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -798,11 +802,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,76 +815,79 @@
     <col min="13" max="13" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="38" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="17" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="23" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="81.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="19"/>
+    <row r="4" spans="1:15" ht="81.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
@@ -902,238 +909,238 @@
       <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="24"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="K4" s="36"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="36"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="13">
         <v>1005</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="27" t="s">
+      <c r="G5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="15">
         <v>4243167.1100000003</v>
       </c>
-      <c r="M5" s="27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="28"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="27" t="s">
+      <c r="M5" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="12">
         <v>35.6</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="28"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="28"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="27" t="s">
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="12">
         <v>84.8</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="28"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="27" t="s">
+      <c r="G9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="28"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27" t="s">
+      <c r="L10" s="16"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="28"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="29"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="27" t="s">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="12">
         <v>557</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="27">
+      <c r="G13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="12">
         <v>84.8</v>
       </c>
-      <c r="J13" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="27" t="s">
+      <c r="J13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="15">
         <v>216358.67</v>
       </c>
-      <c r="M13" s="27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="28"/>
-    </row>
-    <row r="15" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="28"/>
+      <c r="M13" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1146,17 +1153,17 @@
       <c r="G15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="28"/>
-    </row>
-    <row r="16" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="28"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1169,224 +1176,224 @@
       <c r="G16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="28"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="12">
         <v>182.8</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="27" t="s">
+      <c r="G17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="12">
         <v>318.89999999999998</v>
       </c>
-      <c r="J17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="28"/>
+      <c r="J17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="28"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="29"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="14"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="27">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="12">
         <v>84.8</v>
       </c>
-      <c r="J20" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="27" t="s">
+      <c r="J20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="29"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="14"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="12">
         <v>2</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="12">
         <v>1270</v>
       </c>
-      <c r="G22" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="27">
+      <c r="G22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="12">
         <v>50.4</v>
       </c>
-      <c r="J22" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="27" t="s">
+      <c r="J22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="15">
         <v>4098525.47</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="M22" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="28"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="27" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="12">
         <v>217.7</v>
       </c>
-      <c r="J24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="28"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="28"/>
+      <c r="J24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="28"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="4" t="s">
         <v>17</v>
       </c>
@@ -1396,26 +1403,26 @@
       <c r="J26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="28"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="13"/>
     </row>
     <row r="27" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="27" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="12">
         <v>50.4</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -1427,24 +1434,24 @@
       <c r="J27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="30">
+      <c r="K27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="15">
         <v>600</v>
       </c>
-      <c r="M27" s="27" t="s">
+      <c r="M27" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
       <c r="H28" s="4" t="s">
         <v>17</v>
       </c>
@@ -1454,12 +1461,12 @@
       <c r="J28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="29"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="5" t="s">
         <v>31</v>
       </c>
@@ -1496,7 +1503,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="5" t="s">
         <v>31</v>
       </c>
@@ -1533,21 +1540,21 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="35" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="20" t="s">
         <v>20</v>
       </c>
       <c r="H31" s="5" t="s">
@@ -1559,24 +1566,24 @@
       <c r="J31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="27" t="s">
+      <c r="K31" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="5" t="s">
         <v>17</v>
       </c>
@@ -1586,18 +1593,18 @@
       <c r="J32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K32" s="28"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="28"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
       <c r="H33" s="5" t="s">
         <v>23</v>
       </c>
@@ -1607,234 +1614,234 @@
       <c r="J33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="29"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="14"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
+      <c r="A34" s="12">
         <v>3</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="27" t="s">
+      <c r="D34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="12">
         <v>54.3</v>
       </c>
-      <c r="G34" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="27">
+      <c r="G34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="12">
         <v>51.2</v>
       </c>
-      <c r="J34" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="30">
+      <c r="J34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="15">
         <v>3431855.78</v>
       </c>
-      <c r="M34" s="35" t="s">
+      <c r="M34" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="36"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="27" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36" s="12">
         <v>47.2</v>
       </c>
-      <c r="G36" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="36"/>
+      <c r="G36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="22"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="36"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="22"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="27" t="s">
+      <c r="A38" s="13"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="12">
         <v>58.6</v>
       </c>
-      <c r="G38" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="36"/>
+      <c r="G38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="22"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="36"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="22"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="27" t="s">
+      <c r="A40" s="13"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="12">
         <v>31</v>
       </c>
-      <c r="G40" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="36"/>
+      <c r="G40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="22"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="37"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="21"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="27" t="s">
+      <c r="A42" s="13"/>
+      <c r="B42" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="27" t="s">
+      <c r="C42" s="12"/>
+      <c r="D42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="12">
         <v>58.6</v>
       </c>
-      <c r="G42" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="27">
+      <c r="G42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="12">
         <v>47.2</v>
       </c>
-      <c r="J42" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K42" s="27" t="s">
+      <c r="J42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L42" s="30">
+      <c r="L42" s="15">
         <v>329647.48</v>
       </c>
-      <c r="M42" s="27" t="s">
+      <c r="M42" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="29"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="14"/>
     </row>
     <row r="44" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="5" t="s">
         <v>31</v>
       </c>
@@ -1871,13 +1878,13 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="28">
+      <c r="A45" s="13">
         <v>4</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -1892,29 +1899,29 @@
       <c r="G45" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="27">
+      <c r="H45" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="12">
         <v>106.8</v>
       </c>
-      <c r="J45" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="27" t="s">
+      <c r="J45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="L45" s="30">
+      <c r="L45" s="15">
         <v>6750455</v>
       </c>
-      <c r="M45" s="27" t="s">
+      <c r="M45" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="28"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="5" t="s">
         <v>17</v>
       </c>
@@ -1927,17 +1934,17 @@
       <c r="G46" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="28"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="13"/>
     </row>
     <row r="47" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="28"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="5" t="s">
         <v>43</v>
       </c>
@@ -1950,25 +1957,25 @@
       <c r="G47" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="27">
+      <c r="H47" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="12">
         <v>74.900000000000006</v>
       </c>
-      <c r="J47" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K47" s="27" t="s">
+      <c r="J47" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L47" s="31"/>
-      <c r="M47" s="28"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="13"/>
     </row>
     <row r="48" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="28"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="5" t="s">
         <v>23</v>
       </c>
@@ -1981,17 +1988,17 @@
       <c r="G48" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="28"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="13"/>
     </row>
     <row r="49" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="29"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="5" t="s">
         <v>45</v>
       </c>
@@ -2004,15 +2011,15 @@
       <c r="G49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="29"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="14"/>
     </row>
     <row r="50" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="5" t="s">
         <v>28</v>
       </c>
@@ -2049,7 +2056,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="5" t="s">
         <v>31</v>
       </c>
@@ -2086,25 +2093,25 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="27">
+      <c r="A52" s="12">
         <v>5</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="35" t="s">
+      <c r="D52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="20" t="s">
         <v>20</v>
       </c>
       <c r="H52" s="5" t="s">
@@ -2116,24 +2123,24 @@
       <c r="J52" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="27" t="s">
+      <c r="K52" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L52" s="30">
+      <c r="L52" s="15">
         <v>17757623.920000002</v>
       </c>
-      <c r="M52" s="27" t="s">
+      <c r="M52" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="5" t="s">
         <v>23</v>
       </c>
@@ -2143,26 +2150,26 @@
       <c r="J53" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K53" s="29"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="29"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="14"/>
     </row>
     <row r="54" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="27" t="s">
+      <c r="A54" s="13"/>
+      <c r="B54" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="35" t="s">
+      <c r="C54" s="12"/>
+      <c r="D54" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="20" t="s">
         <v>20</v>
       </c>
       <c r="H54" s="5" t="s">
@@ -2174,24 +2181,24 @@
       <c r="J54" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K54" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L54" s="30">
+      <c r="K54" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="15">
         <v>1582822.61</v>
       </c>
-      <c r="M54" s="27" t="s">
+      <c r="M54" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
       <c r="H55" s="5" t="s">
         <v>23</v>
       </c>
@@ -2201,12 +2208,12 @@
       <c r="J55" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K55" s="29"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="29"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="14"/>
     </row>
     <row r="56" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="5" t="s">
         <v>31</v>
       </c>
@@ -2243,591 +2250,691 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="27">
+      <c r="A57" s="12">
         <v>6</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E57" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F57" s="27">
+      <c r="F57" s="12">
         <v>1961.6</v>
       </c>
-      <c r="G57" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I57" s="27">
+      <c r="G57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="12">
         <v>63.2</v>
       </c>
-      <c r="J57" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K57" s="27" t="s">
+      <c r="J57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L57" s="30">
+      <c r="L57" s="15">
         <v>2468759.88</v>
       </c>
-      <c r="M57" s="27" t="s">
+      <c r="M57" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="28"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="13"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="27" t="s">
+      <c r="A59" s="13"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="27">
+      <c r="F59" s="12">
         <v>127.4</v>
       </c>
-      <c r="G59" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="28"/>
+      <c r="G59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="13"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="28"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="13"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="27" t="s">
+      <c r="A61" s="13"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F61" s="12">
         <v>100.2</v>
       </c>
-      <c r="G61" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="28"/>
+      <c r="G61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="13"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="28"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="13"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="27" t="s">
+      <c r="A63" s="13"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F63" s="27">
+      <c r="F63" s="12">
         <v>60.8</v>
       </c>
-      <c r="G63" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="28"/>
+      <c r="G63" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="13"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="28"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="13"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" s="27" t="s">
+      <c r="A65" s="13"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="27">
+      <c r="F65" s="12">
         <v>37.799999999999997</v>
       </c>
-      <c r="G65" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="28"/>
+      <c r="G65" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="13"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="29"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="14"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="27" t="s">
+      <c r="A67" s="13"/>
+      <c r="B67" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27" t="s">
+      <c r="C67" s="12"/>
+      <c r="D67" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E67" s="27" t="s">
+      <c r="E67" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F67" s="27">
+      <c r="F67" s="12">
         <v>1961.6</v>
       </c>
-      <c r="G67" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I67" s="27">
+      <c r="G67" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" s="12">
         <v>63.2</v>
       </c>
-      <c r="J67" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K67" s="27" t="s">
+      <c r="J67" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K67" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L67" s="30">
+      <c r="L67" s="15">
         <v>3429387.64</v>
       </c>
-      <c r="M67" s="27" t="s">
+      <c r="M67" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="28"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="13"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="27" t="s">
+      <c r="A69" s="13"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="27" t="s">
+      <c r="E69" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F69" s="27">
+      <c r="F69" s="12">
         <v>127.4</v>
       </c>
-      <c r="G69" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="28"/>
+      <c r="G69" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="13"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="28"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="13"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="27" t="s">
+      <c r="A71" s="13"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E71" s="27" t="s">
+      <c r="E71" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F71" s="27">
+      <c r="F71" s="12">
         <v>100.2</v>
       </c>
-      <c r="G71" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I71" s="27">
+      <c r="G71" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" s="12">
         <v>37.799999999999997</v>
       </c>
-      <c r="J71" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K71" s="27" t="s">
+      <c r="J71" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K71" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L71" s="31"/>
-      <c r="M71" s="28"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="13"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="28"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="13"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="27" t="s">
+      <c r="A73" s="13"/>
+      <c r="B73" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73" s="27">
+      <c r="C73" s="12"/>
+      <c r="D73" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" s="12">
         <v>63.2</v>
       </c>
-      <c r="J73" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K73" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L73" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="M73" s="27" t="s">
+      <c r="J73" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="28"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="13"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I75" s="27">
+      <c r="A75" s="13"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" s="12">
         <v>37.799999999999997</v>
       </c>
-      <c r="J75" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K75" s="28"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="28"/>
+      <c r="J75" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K75" s="13"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="13"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="32"/>
-      <c r="M76" s="29"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="14"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="27" t="s">
+      <c r="A77" s="13"/>
+      <c r="B77" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I77" s="27">
+      <c r="C77" s="12"/>
+      <c r="D77" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" s="12">
         <v>63.2</v>
       </c>
-      <c r="J77" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K77" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L77" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="M77" s="27" t="s">
+      <c r="J77" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="28"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="13"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="28"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I79" s="27">
+      <c r="A79" s="13"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" s="12">
         <v>37.799999999999997</v>
       </c>
-      <c r="J79" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K79" s="28"/>
-      <c r="L79" s="31"/>
-      <c r="M79" s="28"/>
+      <c r="J79" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" s="13"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="13"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="32"/>
-      <c r="M80" s="29"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="K77:K80"/>
-    <mergeCell ref="L77:L80"/>
-    <mergeCell ref="M77:M80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="L73:L76"/>
-    <mergeCell ref="M73:M76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="G73:G76"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="L67:L72"/>
-    <mergeCell ref="M67:M72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="L57:L66"/>
-    <mergeCell ref="M57:M66"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H12"/>
+    <mergeCell ref="I5:I12"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="K13:K19"/>
+    <mergeCell ref="L13:L19"/>
+    <mergeCell ref="M13:M19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="A5:A21"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="M22:M26"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K26"/>
+    <mergeCell ref="L22:L26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="C34:C41"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H41"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K34:K41"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L34:L41"/>
+    <mergeCell ref="M34:M41"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="I34:I41"/>
+    <mergeCell ref="J34:J41"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L49"/>
+    <mergeCell ref="M45:M49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
     <mergeCell ref="A57:A80"/>
     <mergeCell ref="B57:B66"/>
     <mergeCell ref="C57:C66"/>
@@ -2852,170 +2959,70 @@
     <mergeCell ref="H77:H78"/>
     <mergeCell ref="I77:I78"/>
     <mergeCell ref="J77:J78"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L49"/>
-    <mergeCell ref="M45:M49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="L34:L41"/>
-    <mergeCell ref="M34:M41"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="I34:I41"/>
-    <mergeCell ref="J34:J41"/>
-    <mergeCell ref="A34:A44"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="C34:C41"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H41"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K34:K41"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K26"/>
-    <mergeCell ref="L22:L26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="A22:A33"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="A5:A21"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="M22:M26"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="C13:C19"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="K13:K19"/>
-    <mergeCell ref="L13:L19"/>
-    <mergeCell ref="M13:M19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="M5:M12"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H12"/>
-    <mergeCell ref="I5:I12"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="K5:K9"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L57:L66"/>
+    <mergeCell ref="M57:M66"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="L67:L72"/>
+    <mergeCell ref="M67:M72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="G73:G76"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K77:K80"/>
+    <mergeCell ref="L77:L80"/>
+    <mergeCell ref="M77:M80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="L73:L76"/>
+    <mergeCell ref="M73:M76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
